--- a/Network-Templates/Audits/DC Refresh Network Workbook-v1.xlsx
+++ b/Network-Templates/Audits/DC Refresh Network Workbook-v1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-48440" yWindow="4080" windowWidth="27320" windowHeight="14020"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
-    <sheet name="Switch-port Matrix 1101" sheetId="5" r:id="rId1"/>
+    <sheet name="Small DC Migration" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -387,126 +387,6 @@
     <t>DC-ASR-R01 Mgmt Port</t>
   </si>
   <si>
-    <t>DC-2248-RACK1-A -- FEX - eth1/49</t>
-  </si>
-  <si>
-    <t>DC-2248-RACK1-A -- FEX - eth1/50</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth1/47</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth1/47</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth1/48</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth1/48</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth2/5</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth2/5</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth2/6</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth2/6</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A Mgmt Port</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B Mgmt Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uplink to DC-N5K-RACK1-A</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth1/45</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-A eth1/46</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uplink to DC-N5K-RACK1-B</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth1/45</t>
-  </si>
-  <si>
-    <t>DC-N5K-RACK1-B eth1/46</t>
-  </si>
-  <si>
-    <t>DRDC-SQL01-A - R920 - Port 1</t>
-  </si>
-  <si>
-    <t>DRDC-SQL01-A - R920 - Port 2   * (New PCDRDC 10Gb SFP+ Card)</t>
-  </si>
-  <si>
-    <t>DRDC-SQLBI-01 - R630 - Port 1</t>
-  </si>
-  <si>
-    <t>DRDC-SQLBI-01 - R630 - Port 2  * (New PCDRDC 10Gb SFP+ Card)</t>
-  </si>
-  <si>
-    <t>DRDC-BACKUP-02 - R730xd - Port 1</t>
-  </si>
-  <si>
-    <t>DRDC-BACKUP-02 - R730xd - Port 1 * (New PCDRDC 10Gb SFP+ Card)</t>
-  </si>
-  <si>
-    <t>DRDC-TABLEAU-01 - R630 - Port 1</t>
-  </si>
-  <si>
-    <t>DRDC-TABLEAU-01 - R630 - Port 2 * (New PCDRDC 10Gb SFP+ Card)</t>
-  </si>
-  <si>
-    <t>DRDC-SQL01-OLD Port 1</t>
-  </si>
-  <si>
-    <t>DRDC-VC01 Port 1</t>
-  </si>
-  <si>
-    <t>iDRAC DRDC-BACKUP-02</t>
-  </si>
-  <si>
-    <t>iDRAC DRDC-SQLBI-01</t>
-  </si>
-  <si>
-    <t>iDRAC DRDC-SQL01-A</t>
-  </si>
-  <si>
-    <t>iDRAC DRDC-TABLEAU-01</t>
-  </si>
-  <si>
-    <t>Reserved for DRDC-SQL01-OLD Port 2</t>
-  </si>
-  <si>
-    <t>Reserved for DRDC-VC01 Port 2</t>
-  </si>
-  <si>
-    <t>Reserved for DRDC-DC01 Port 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reserved for iDRAC DRDC-SQL01-OLD </t>
-  </si>
-  <si>
-    <t>Reserved for iDRAC DRDC-VC01</t>
-  </si>
-  <si>
-    <t>Reserved for iDRAC DRDC-DC01</t>
-  </si>
-  <si>
-    <t>DC-2248-RACK1-B -- FEX - eth1/51</t>
-  </si>
-  <si>
-    <t>DC-2248-RACK1-B -- FEX - eth1/52</t>
-  </si>
-  <si>
     <t>OLD-Core01-A-Port 48</t>
   </si>
   <si>
@@ -555,7 +435,127 @@
     <t>Dell SC8000 Controller 1 Management</t>
   </si>
   <si>
-    <t>DRDC-DC01 - Port 1</t>
+    <t>DC-PA-FW00-B</t>
+  </si>
+  <si>
+    <t>DC-LEAF-RACK1-A -- FEX - eth1/49</t>
+  </si>
+  <si>
+    <t>DC-LEAF-RACK1-B -- FEX - eth1/51</t>
+  </si>
+  <si>
+    <t>DC-LEAF-RACK1-A -- FEX - eth1/50</t>
+  </si>
+  <si>
+    <t>DC-LEAF-RACK1-B -- FEX - eth1/52</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth1/47</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth1/47</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth1/48</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth1/48</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth2/5</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth2/5</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth2/6</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth2/6</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A Mgmt Port</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B Mgmt Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uplink to DC-SPINE-RACK1-A</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth1/45</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-A eth1/46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uplink to DC-SPINE-RACK1-B</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth1/45</t>
+  </si>
+  <si>
+    <t>DC-SPINE-RACK1-B eth1/46</t>
+  </si>
+  <si>
+    <t>DC-R-SQL01-A -Port 1</t>
+  </si>
+  <si>
+    <t>DC-R-SQL01-A - Port 2</t>
+  </si>
+  <si>
+    <t>DC-R-SQLBI-01 - Port 1</t>
+  </si>
+  <si>
+    <t>DC-R-SQLBI-01 - Port 2</t>
+  </si>
+  <si>
+    <t>DC-R-BACKUP-02 - Port 1</t>
+  </si>
+  <si>
+    <t>DC-R-TABLEAU-01 - Port 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-R-TABLEAU-01  - Port 2 </t>
+  </si>
+  <si>
+    <t>DC-R-SQL01-OLD Port 1</t>
+  </si>
+  <si>
+    <t>DC-R-DC01 - Port 1</t>
+  </si>
+  <si>
+    <t>DC-R-VC01 Port 1</t>
+  </si>
+  <si>
+    <t>iDRAC DC-R-BACKUP-02</t>
+  </si>
+  <si>
+    <t>iDRAC DC-R-SQLBI-01</t>
+  </si>
+  <si>
+    <t>iDRAC DC-R-SQL01-A</t>
+  </si>
+  <si>
+    <t>iDRAC DC-R-TABLEAU-01</t>
+  </si>
+  <si>
+    <t>Reserved for DC-R-SQL01-OLD Port 2</t>
+  </si>
+  <si>
+    <t>Reserved for DC-R-VC01 Port 2</t>
+  </si>
+  <si>
+    <t>Reserved for DC-R-DC01 Port 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved for iDRAC DC-R-SQL01-OLD </t>
+  </si>
+  <si>
+    <t>Reserved for iDRAC DC-R-VC01</t>
+  </si>
+  <si>
+    <t>Reserved for iDRAC DC-R-DC01</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -801,16 +805,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -840,6 +844,8 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -869,6 +875,8 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1156,7 +1164,7 @@
   <dimension ref="A1:O111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1176,19 +1184,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
@@ -1560,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>88</v>
@@ -1569,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>88</v>
@@ -1580,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>88</v>
@@ -1589,7 +1597,7 @@
         <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>88</v>
@@ -1600,7 +1608,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>88</v>
@@ -1609,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>88</v>
@@ -1620,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>88</v>
@@ -1629,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>88</v>
@@ -1640,7 +1648,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>109</v>
@@ -1649,7 +1657,7 @@
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>109</v>
@@ -1660,7 +1668,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>109</v>
@@ -1784,7 +1792,7 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>3</v>
@@ -1794,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="J37" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>3</v>
@@ -1806,7 +1814,7 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>3</v>
@@ -1815,7 +1823,7 @@
         <v>41</v>
       </c>
       <c r="J38" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>3</v>
@@ -1854,10 +1862,10 @@
         <v>44</v>
       </c>
       <c r="J41" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>109</v>
@@ -1868,10 +1876,10 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>109</v>
@@ -1924,7 +1932,7 @@
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>66</v>
@@ -1936,7 +1944,7 @@
         <v>68</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>66</v>
@@ -1978,7 +1986,7 @@
         <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D47"/>
       <c r="F47" s="4" t="s">
@@ -1991,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>66</v>
@@ -2005,7 +2013,7 @@
         <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D48"/>
       <c r="F48" s="4" t="s">
@@ -2018,7 +2026,7 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>66</v>
@@ -2032,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D49"/>
       <c r="F49" s="4" t="s">
@@ -2045,7 +2053,7 @@
         <v>65</v>
       </c>
       <c r="K49" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L49"/>
       <c r="N49" s="4" t="s">
@@ -2060,7 +2068,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D50"/>
       <c r="F50" s="4" t="s">
@@ -2073,7 +2081,7 @@
         <v>65</v>
       </c>
       <c r="K50" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="L50"/>
       <c r="N50" s="4" t="s">
@@ -2120,7 +2128,7 @@
         <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>66</v>
@@ -2132,7 +2140,7 @@
         <v>106</v>
       </c>
       <c r="K55" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>66</v>
@@ -2146,7 +2154,7 @@
         <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>66</v>
@@ -2158,7 +2166,7 @@
         <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O56" s="7" t="s">
         <v>66</v>
@@ -2191,23 +2199,23 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="23">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="J58" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="J58" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
@@ -2249,13 +2257,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J60" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="N60" s="6">
         <v>8</v>
@@ -2266,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J61" s="15" t="s">
-        <v>173</v>
+      <c r="J61" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="N61" s="6">
         <v>32</v>
@@ -2289,7 +2297,7 @@
         <v>69</v>
       </c>
       <c r="J62" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="N62" s="6">
         <v>8</v>
@@ -2306,7 +2314,7 @@
         <v>69</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="N63" s="6">
         <v>2</v>
@@ -2317,13 +2325,13 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J64" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="M64" s="6">
         <v>9</v>
@@ -2334,13 +2342,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J65" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="L65" s="6">
         <v>4</v>
@@ -2351,13 +2359,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J66" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -2365,13 +2373,13 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>69</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="M67" s="6">
         <v>24</v>
@@ -2387,8 +2395,8 @@
       <c r="E68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J68" s="15" t="s">
-        <v>171</v>
+      <c r="J68" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -2473,7 +2481,7 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>69</v>
@@ -2484,7 +2492,7 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>69</v>
@@ -2495,7 +2503,7 @@
         <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>69</v>
@@ -2506,7 +2514,7 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>69</v>
@@ -2517,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>69</v>
@@ -2528,7 +2536,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>69</v>
@@ -2539,7 +2547,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>69</v>
@@ -2550,7 +2558,7 @@
         <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>69</v>
@@ -2681,10 +2689,10 @@
         <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D108"/>
       <c r="F108" s="4" t="s">
@@ -2696,10 +2704,10 @@
         <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D109"/>
       <c r="F109" s="4" t="s">
@@ -2711,10 +2719,10 @@
         <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D110"/>
       <c r="F110" s="4" t="s">
@@ -2726,10 +2734,10 @@
         <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D111"/>
       <c r="F111" s="4" t="s">
